--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2462441.37141314</v>
+        <v>2460189.291701933</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>238.7813195717458</v>
+        <v>92.72329049755695</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -713,13 +713,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>57.91073356940661</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>103.4870232461741</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.4798709087831</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>198.7866240250368</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>32.24238685723915</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>19.52918235370607</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>120.7307820829398</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>4.014908381400569</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.7029035467952</v>
+        <v>160.238372828422</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07546534818415</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>31.26260713376619</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144413</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712923</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187885</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>75.00788511618082</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>61.62152140683692</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.132475219475</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>1859.132475219475</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,10 +4325,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810562</v>
@@ -4337,19 +4337,19 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259409</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.732315283597</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4404,10 +4404,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.0565485757129</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,19 +4495,19 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
         <v>831.0565485757129</v>
@@ -4519,19 +4519,19 @@
         <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757129</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y4" t="n">
-        <v>831.0565485757129</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1518.851284880194</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3124.811251886912</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3124.811251886912</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2793.748364543341</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2793.748364543341</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,49 +4647,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>700.0944266746549</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>531.158243746748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>381.0416043344122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>233.1285107520191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>86.23856325410875</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746549</v>
+        <v>99.08018396474822</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.601998493313</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.639481552901</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D8" t="n">
-        <v>878.3737829461504</v>
+        <v>920.7766538636577</v>
       </c>
       <c r="E8" t="n">
-        <v>492.5855303479062</v>
+        <v>534.9884012654134</v>
       </c>
       <c r="F8" t="n">
-        <v>81.59962555829861</v>
+        <v>528.0429005162099</v>
       </c>
       <c r="G8" t="n">
-        <v>70.56757944369917</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>70.56757944369917</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794326</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794326</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533246</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557434</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145766</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5492,61 +5492,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7035232280583</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168629</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6248,28 +6248,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797191</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,16 +6780,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>527.7722521572603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>379.8591585748671</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>379.8591585748671</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373306</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7427,16 +7427,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.5400076700282</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194052</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>186.1428431935221</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187207</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>103.9026168854319</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="7">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="H2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
@@ -26344,16 +26344,16 @@
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.252917000187906e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
+        <v>14826.6960418674</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14826.69604186744</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.69604186741</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14826.69604186739</v>
+      </c>
+      <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="F4" t="n">
-        <v>14826.69604186734</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186734</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186734</v>
-      </c>
       <c r="J4" t="n">
-        <v>14826.69604186727</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26451,10 +26451,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482182</v>
+        <v>-893968.0587482183</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793739</v>
+        <v>434776.6869793737</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793735</v>
+        <v>434776.6869793737</v>
       </c>
       <c r="E6" t="n">
-        <v>184176.9270866254</v>
+        <v>184142.1891611897</v>
       </c>
       <c r="F6" t="n">
-        <v>509589.3888939805</v>
+        <v>509554.6509685444</v>
       </c>
       <c r="G6" t="n">
-        <v>509589.3888939801</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="H6" t="n">
-        <v>509589.3888939801</v>
+        <v>509554.6509685446</v>
       </c>
       <c r="I6" t="n">
-        <v>509589.3888939805</v>
+        <v>509554.6509685445</v>
       </c>
       <c r="J6" t="n">
-        <v>292058.1864967028</v>
+        <v>292023.4485712671</v>
       </c>
       <c r="K6" t="n">
-        <v>509589.3888939802</v>
+        <v>509554.6509685445</v>
       </c>
       <c r="L6" t="n">
-        <v>509589.3888939802</v>
+        <v>509554.6509685445</v>
       </c>
       <c r="M6" t="n">
-        <v>424534.3609584685</v>
+        <v>424499.6230330329</v>
       </c>
       <c r="N6" t="n">
-        <v>509589.3888939802</v>
+        <v>509554.6509685444</v>
       </c>
       <c r="O6" t="n">
-        <v>509589.3888939802</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="P6" t="n">
-        <v>509589.3888939804</v>
+        <v>509554.6509685444</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>115.9017220489372</v>
+        <v>261.959751123126</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>109.3360875292212</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>122.222632142863</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.20317071189987</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5.131346114583295</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>147.5895933246981</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>146.4966259053222</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>290.1909435705136</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>37.56202139152536</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.88174980529956</v>
+        <v>58.34628052367276</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.353712668104585e-14</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.875832822406664e-12</v>
+        <v>-5.260329494105887e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>567.4250434254229</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>538.585383513313</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.3877517590781</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>229.6463482471735</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2529048371025</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>436.0833313420897</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998997</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912947</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924114</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>91.80490927281451</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>471.1188709150841</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
